--- a/Supplemental_Table_S3.xlsx
+++ b/Supplemental_Table_S3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC49D40-AAC4-4CCA-BA47-AB78ECB22697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201CE8BE-AEB5-4585-B88F-58C401DA2EA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
